--- a/james-bond-007/checklist.xlsx
+++ b/james-bond-007/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/james-bond-007/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/james-bond-007/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94772EA9-D78C-F44B-818C-CF86A3875DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4215EEBF-3BED-E944-A6DF-E48E19C716FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="660" windowWidth="28040" windowHeight="17440" xr2:uid="{083A0993-1664-2847-85A8-CB5EDE12BAB1}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="16360" xr2:uid="{083A0993-1664-2847-85A8-CB5EDE12BAB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,13 +62,13 @@
     <t>goldfinger.jpg</t>
   </si>
   <si>
-    <t>Hobby Japan</t>
-  </si>
-  <si>
     <t>James Bond 007</t>
   </si>
   <si>
     <t>Goldfinger</t>
+  </si>
+  <si>
+    <t>Victory Games</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,10 +466,10 @@
         <v>1986</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -480,10 +480,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
